--- a/Assets/StreamingAssets/EnemyStatus.xlsx
+++ b/Assets/StreamingAssets/EnemyStatus.xlsx
@@ -16,16 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>怪物名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蝙蝠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -34,83 +30,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LV1_HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LV1_ATK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LV2_HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LV2_ATK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LV3_HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LV3_ATK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LV4_HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LV4_ATK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LV5_HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LV5_ATK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LV6_HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LV6_ATK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LV7_HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LV7_ATK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LV8_HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LV8_ATK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LV9_HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LV9_ATK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LV10_HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LV10_ATK</t>
+    <t>BASIC_HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASIC_ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LvUp_HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LvUp_ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemyName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,88 +391,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2">
-        <v>0</v>
-      </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -545,66 +439,18 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>30</v>
-      </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>45</v>
-      </c>
-      <c r="I2">
-        <v>40</v>
-      </c>
-      <c r="J2">
-        <v>60</v>
-      </c>
-      <c r="K2">
-        <v>50</v>
-      </c>
-      <c r="L2">
-        <v>75</v>
-      </c>
-      <c r="M2">
-        <v>60</v>
-      </c>
-      <c r="N2">
-        <v>90</v>
-      </c>
-      <c r="O2">
-        <v>70</v>
-      </c>
-      <c r="P2">
-        <v>105</v>
-      </c>
-      <c r="Q2">
-        <v>80</v>
-      </c>
-      <c r="R2">
-        <v>120</v>
-      </c>
-      <c r="S2">
-        <v>90</v>
-      </c>
-      <c r="T2">
-        <v>135</v>
-      </c>
-      <c r="U2">
-        <v>100</v>
-      </c>
-      <c r="V2">
-        <v>150</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:6">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -613,58 +459,10 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>40</v>
-      </c>
-      <c r="G3">
-        <v>60</v>
-      </c>
-      <c r="H3">
-        <v>60</v>
-      </c>
-      <c r="I3">
-        <v>80</v>
-      </c>
-      <c r="J3">
-        <v>80</v>
-      </c>
-      <c r="K3">
-        <v>100</v>
-      </c>
-      <c r="L3">
-        <v>100</v>
-      </c>
-      <c r="M3">
-        <v>120</v>
-      </c>
-      <c r="N3">
-        <v>120</v>
-      </c>
-      <c r="O3">
-        <v>140</v>
-      </c>
-      <c r="P3">
-        <v>140</v>
-      </c>
-      <c r="Q3">
-        <v>160</v>
-      </c>
-      <c r="R3">
-        <v>160</v>
-      </c>
-      <c r="S3">
-        <v>180</v>
-      </c>
-      <c r="T3">
-        <v>180</v>
-      </c>
-      <c r="U3">
-        <v>200</v>
-      </c>
-      <c r="V3">
-        <v>200</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
